--- a/biology/Histoire de la zoologie et de la botanique/Charles_Spence_Bate/Charles_Spence_Bate.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Spence_Bate/Charles_Spence_Bate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Spence Bate est un naturaliste britannique, né le 16 mars 1819 près de Truro et mort le 29 juillet 1889 dans le Devonshire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Charles Bate et d’Harriet née Spencer. Il étudie la chirurgie dentaire. Il se marie avec Emily Amelia Hele le 17 juin 1847 avec laquelle il aura deux fils et une fille.
 Membre de la Société linnéenne de Londres et de la Royal Society (en 1861), il fait également partie de société de dentistes.
@@ -544,7 +558,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs espèces lui sont dédiées dont :
 Pseudoparatanais batei par Georg Sars (1837-1927) en 1882,
@@ -579,9 +595,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1863-1868 : A history of the British sessile-eyed Crustacea[1] (J. Van Voorst, Londres)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1863-1868 : A history of the British sessile-eyed Crustacea (J. Van Voorst, Londres)</t>
         </is>
       </c>
     </row>
@@ -609,7 +627,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Exemplaire numérique sur Internet Archive : volume 1 et volume 2.
